--- a/book2.xlsx
+++ b/book2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mehul\freelancing\straemlit data dash sanjay shah(yashash)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mehul\freelancing\final\streamlit-bank-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25193730-04E8-4BF9-B03B-4037C12907C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BEB142-7967-4ED7-891F-F6DC5D69DC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8DF7FBF9-6D6E-450F-ABA6-B4B390811FAC}"/>
   </bookViews>
@@ -2955,9 +2955,6 @@
     <t xml:space="preserve">MOTILAL OSWAL FINSEC IFSC </t>
   </si>
   <si>
-    <t xml:space="preserve">MOTILAL OSWAL SECURITIES </t>
-  </si>
-  <si>
     <t xml:space="preserve">MOTISONS SHARES </t>
   </si>
   <si>
@@ -5086,6 +5083,9 @@
   </si>
   <si>
     <t xml:space="preserve">ZUARI FINSERV </t>
+  </si>
+  <si>
+    <t>MOTILAL OSWAL</t>
   </si>
 </sst>
 </file>
@@ -5467,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E25258-6C8A-477C-9E92-EE4DEC7FDB5C}">
   <dimension ref="A1:A1693"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1681" workbookViewId="0">
-      <selection activeCell="D1672" sqref="D1672"/>
+    <sheetView tabSelected="1" topLeftCell="A964" workbookViewId="0">
+      <selection activeCell="A979" sqref="A979"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10368,3577 +10368,3577 @@
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A979" s="3" t="s">
-        <v>972</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A980" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A981" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A982" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A983" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A984" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A985" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A986" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A987" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A988" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A989" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A990" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A991" s="3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A992" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A993" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A994" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A995" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A996" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A997" s="3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A998" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A999" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1000" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1001" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1002" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1003" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1004" s="3" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1005" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1006" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1007" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1008" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1009" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1010" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1011" s="3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1012" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1013" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1014" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1015" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1016" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1017" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1018" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1019" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1020" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1021" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1022" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1023" s="3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1024" s="3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1025" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1026" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1027" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1028" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1029" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1030" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1031" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1032" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1033" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1034" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1035" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1036" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1037" s="3" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1038" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1039" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1040" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1041" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1042" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1043" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1044" s="3" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1045" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1046" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1047" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048" s="3" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1049" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1050" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1051" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1052" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1053" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1054" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1055" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1056" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1057" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1058" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1059" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1060" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1061" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1062" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1063" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1064" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1065" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1066" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1067" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1068" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1069" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1070" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1071" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1072" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1073" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1074" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1075" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1076" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1077" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1078" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1078" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1079" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1080" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1081" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1082" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1083" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1084" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1085" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1086" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1087" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1088" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1089" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1090" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1090" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1091" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1092" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1093" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1094" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1095" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1096" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1096" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1097" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1098" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1099" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1100" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1101" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1102" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1103" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1104" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1105" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1106" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1107" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1108" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1109" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1110" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1111" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1112" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1113" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1114" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1115" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1116" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1117" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1118" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1119" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1120" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1121" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1122" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1123" s="3" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1124" s="3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1125" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1126" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1127" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1128" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1129" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1130" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1131" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1132" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1133" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1134" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1135" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1136" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1137" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1138" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1139" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1140" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1141" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1142" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1143" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1144" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1145" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1146" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1147" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1148" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1149" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1150" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1151" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1152" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1153" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1154" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1155" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1156" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1157" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1158" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1159" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1160" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1161" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1162" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1163" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1164" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1165" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1166" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1167" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1168" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1169" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1170" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1171" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1172" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1173" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1174" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1175" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1176" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1177" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1178" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1179" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1180" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1181" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1182" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1183" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1184" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1185" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1186" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1187" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1188" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1189" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1190" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1191" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1192" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1193" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1194" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1195" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1196" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1197" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1198" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1199" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1200" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1201" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1202" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1203" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1204" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1205" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1206" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1207" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1208" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1209" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1210" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1211" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1212" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1213" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1214" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1215" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1216" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1217" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1218" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1219" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1220" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1221" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1222" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1223" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1224" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1225" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1226" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1227" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1228" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1229" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1230" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1231" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1232" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1233" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1234" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1235" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1236" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1237" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1238" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1239" s="3" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1240" s="3" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1241" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1242" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1243" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1244" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1245" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1246" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1247" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1248" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1249" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1250" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1251" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1252" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1253" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1254" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1255" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1256" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1257" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1258" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1259" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1260" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1261" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1262" s="3" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1263" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1264" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1265" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1266" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1267" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1268" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1269" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1270" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1271" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1272" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1273" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1274" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1275" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1276" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1277" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1278" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1279" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1280" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1281" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1282" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1283" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1284" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1285" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1286" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1287" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1288" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1289" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1290" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1291" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1292" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1293" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1294" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1295" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1296" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1297" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1298" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1299" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1300" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1301" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1302" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1303" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1304" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1305" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1306" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1307" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1308" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1309" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1310" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1311" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1312" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1313" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1314" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1315" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1316" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1317" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1318" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1319" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1320" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1321" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1322" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1323" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1324" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1325" s="3" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1326" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1327" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1328" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1329" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1330" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1331" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1332" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1333" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1334" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1335" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1336" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1337" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1338" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1339" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1340" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1341" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1342" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1343" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1344" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1345" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1346" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1347" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1348" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1349" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1350" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1351" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1352" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1353" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1354" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1355" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1356" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1357" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1358" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1359" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1360" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1361" s="3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1362" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1363" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1364" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1365" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1366" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1367" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1368" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1369" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1370" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1371" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1372" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1373" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1374" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1375" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1376" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1377" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1378" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1379" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1380" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1381" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1382" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1383" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1384" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1385" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1386" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1387" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1388" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1389" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1390" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1391" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1392" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1393" s="3" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1394" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1395" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1396" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1397" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1398" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1399" s="3" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1400" s="3" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1401" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1402" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1403" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1404" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1405" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1406" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1407" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1408" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1409" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1410" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1411" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1412" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1413" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1414" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1415" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1416" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1417" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1418" s="3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1419" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1420" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1421" s="3" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1422" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1423" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1424" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1425" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1426" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1427" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1428" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1429" s="3" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1430" s="3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1431" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1432" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1433" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1434" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1435" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1436" s="3" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1437" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1438" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1439" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1440" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1441" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1442" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1443" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1444" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1445" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1446" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1447" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1448" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1449" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1450" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1451" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1452" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1453" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1454" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1455" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1456" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1457" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1458" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1459" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1460" s="3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1461" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1462" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1463" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1464" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1465" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1466" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1467" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1468" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1469" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1470" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1471" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1472" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1473" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1474" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1475" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1476" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1477" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1478" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1479" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1480" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1481" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1482" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1483" s="3" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1484" s="3" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1485" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1486" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1487" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1488" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1489" s="3" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1490" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1491" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1492" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1493" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1494" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1495" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1496" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1497" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1498" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1499" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1500" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1501" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1502" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1503" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1504" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1505" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1506" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1507" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1508" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1509" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1510" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1511" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1512" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1513" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1514" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1515" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1516" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1517" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1518" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1519" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1520" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1521" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1522" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1523" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1524" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1525" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1526" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1527" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1528" s="3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1529" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1530" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1531" s="3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1532" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1533" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1534" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1535" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1536" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1537" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1538" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1539" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1540" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1541" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1542" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1543" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="1544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1544" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1545" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1546" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="1547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1547" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1548" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1549" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1550" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1551" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1552" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1553" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1554" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1555" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1556" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1557" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1558" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1559" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1560" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1561" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1562" s="3" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1563" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1564" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1565" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1566" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1567" s="3" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1568" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1569" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1570" s="3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1571" s="3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1572" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1573" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="1574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1574" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="1575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1575" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1576" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1577" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1577" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1578" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1578" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="1579" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1579" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1580" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1580" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1581" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1581" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1582" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1582" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="1583" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1583" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1584" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1584" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1585" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1585" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="1586" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1586" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="1587" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1587" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="1588" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1588" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1589" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1589" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1590" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1590" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1591" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1591" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1592" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1592" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1593" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1593" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1594" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1594" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1595" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1596" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1596" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1597" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1597" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1598" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1598" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1599" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1600" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1600" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1601" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1601" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1602" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1602" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1603" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1603" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1604" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1604" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1605" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1605" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1606" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1606" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1607" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1607" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1608" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1608" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1609" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1609" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1610" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1610" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1611" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1611" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1612" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1612" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1613" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1613" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1614" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1614" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1615" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1615" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1616" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1616" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1617" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1617" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1618" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1618" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1619" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1619" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1620" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1620" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1621" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1621" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1622" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1622" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1623" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1623" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1624" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1624" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1625" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1625" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1626" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1626" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1627" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1627" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1628" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1628" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1629" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1629" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1630" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1631" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1632" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1633" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1634" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1635" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1635" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1636" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1637" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1637" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1638" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1639" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1640" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1640" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1641" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1642" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1642" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1643" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1643" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1644" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1644" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1645" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1646" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1646" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1647" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1647" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1648" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1648" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1649" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1649" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1650" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1650" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1651" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1651" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="1652" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1652" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1653" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1653" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1654" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1654" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1655" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1655" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1656" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1656" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1657" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1657" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1658" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1658" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1659" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1659" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1660" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1661" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1661" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1662" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1662" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1663" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1663" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1664" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1664" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1665" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1665" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1666" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1666" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1667" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1667" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1668" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1668" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1669" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1669" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1670" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1670" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1671" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1671" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1672" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1672" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1673" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1673" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1674" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1674" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1675" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1676" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1677" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1678" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1679" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1680" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1680" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1681" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1681" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1682" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1683" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1683" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1684" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1685" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1685" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1686" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1687" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1688" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1689" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1689" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1690" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1690" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1691" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1691" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1692" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1692" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1693" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1693" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
   </sheetData>
